--- a/유닛 및 건물/양과 늑대_건물.xlsx
+++ b/유닛 및 건물/양과 늑대_건물.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\양과 늑대\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD58B3C6-F2F8-42A3-BCDB-BE1CB31B0F6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC42839-C697-4D42-ABAA-09E7AB5AFD00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{43D9080A-AC43-47FA-8388-F8E385494613}"/>
   </bookViews>
@@ -139,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유닛 생산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자원생산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>넥서스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>칸소모</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,6 +165,14 @@
   </si>
   <si>
     <t>2칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛생산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛 해금</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7075,8 +7075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55FA3FB-C7D9-441E-9E3A-31C118F75619}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7126,10 +7126,10 @@
         <v>19</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" s="34" t="s">
         <v>20</v>
@@ -7144,7 +7144,7 @@
         <v>21</v>
       </c>
       <c r="O3" s="44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.4">
@@ -7164,7 +7164,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G4" s="37"/>
       <c r="H4" s="45" t="s">
@@ -7173,13 +7173,13 @@
       <c r="I4" s="46"/>
       <c r="J4" s="47"/>
       <c r="K4" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" s="38"/>
       <c r="M4" s="48"/>
       <c r="N4" s="51"/>
       <c r="O4" s="42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="141.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -7210,7 +7210,7 @@
       <c r="M5" s="49"/>
       <c r="N5" s="52"/>
       <c r="O5" s="42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="141" customHeight="1" x14ac:dyDescent="0.4">
@@ -7230,7 +7230,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
@@ -7241,7 +7241,7 @@
       <c r="M6" s="49"/>
       <c r="N6" s="52"/>
       <c r="O6" s="42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="135" customHeight="1" x14ac:dyDescent="0.4">
@@ -7261,7 +7261,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
@@ -7272,7 +7272,7 @@
       <c r="M7" s="49"/>
       <c r="N7" s="52"/>
       <c r="O7" s="42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="123" customHeight="1" x14ac:dyDescent="0.4">
@@ -7303,7 +7303,7 @@
       <c r="M8" s="50"/>
       <c r="N8" s="53"/>
       <c r="O8" s="42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">

--- a/유닛 및 건물/양과 늑대_건물.xlsx
+++ b/유닛 및 건물/양과 늑대_건물.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC42839-C697-4D42-ABAA-09E7AB5AFD00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688FA838-91DE-48A0-9FB9-E417B11AC968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{43D9080A-AC43-47FA-8388-F8E385494613}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>양 건물 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,10 @@
   </si>
   <si>
     <t>유닛 해금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4칸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7075,8 +7079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55FA3FB-C7D9-441E-9E3A-31C118F75619}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7179,7 +7183,7 @@
       <c r="M4" s="48"/>
       <c r="N4" s="51"/>
       <c r="O4" s="42" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="141.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -7272,7 +7276,7 @@
       <c r="M7" s="49"/>
       <c r="N7" s="52"/>
       <c r="O7" s="42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="123" customHeight="1" x14ac:dyDescent="0.4">

--- a/유닛 및 건물/양과 늑대_건물.xlsx
+++ b/유닛 및 건물/양과 늑대_건물.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0257B734-A8B2-4CBB-B469-C5371CA06FE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9525CC8F-CD7E-44DE-9355-ED6F1A38D06D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8112" yWindow="516" windowWidth="14712" windowHeight="10932" activeTab="1" xr2:uid="{43D9080A-AC43-47FA-8388-F8E385494613}"/>
+    <workbookView minimized="1" xWindow="1200" yWindow="240" windowWidth="19548" windowHeight="10080" xr2:uid="{43D9080A-AC43-47FA-8388-F8E385494613}"/>
   </bookViews>
   <sheets>
     <sheet name="건물" sheetId="1" r:id="rId1"/>
@@ -660,15 +660,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -698,9 +689,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -735,6 +723,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -754,148 +754,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1051085</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1782415</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1152729</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>868656</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="158" name="직사각형 157">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2850475-7B39-4303-8193-17056D951E42}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="2808046">
-          <a:off x="13270395" y="4597696"/>
-          <a:ext cx="881910" cy="101644"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1087825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>16264</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1189469</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>898174</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="159" name="직사각형 158">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4294500D-F198-4018-9311-BF6D7EDE1A9B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="18656447">
-          <a:off x="13307135" y="4627214"/>
-          <a:ext cx="881910" cy="101644"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -914,7 +772,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EA70452-0877-42F1-88FA-B6FA6ADA44F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -964,7 +822,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF4691E0-E938-415D-AAC4-AD8DD691C98D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1014,7 +872,7 @@
         <xdr:cNvPr id="15" name="그림 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B44C8F-2C0D-4C1F-A1F4-72974BB92A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1064,7 +922,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98A2058E-D054-4091-98CB-DBFB5DC7400F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1114,7 +972,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7824146-96AF-4975-9DE0-6907ABA5C901}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1164,7 +1022,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADA2370F-7F75-4A8D-B854-86360CC97DF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1214,7 +1072,7 @@
         <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32BCE7A8-ADC6-4839-9E9B-0836FC2EDF26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1264,7 +1122,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6015B86C-C81A-4FBE-8092-B2C2B6220A47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1314,7 +1172,7 @@
         <xdr:cNvPr id="16" name="그림 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{425976C2-D76E-4D54-9738-C91F9E5E76DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1364,7 +1222,7 @@
         <xdr:cNvPr id="17" name="그림 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90293F51-9CDC-4ABA-89BA-472CD657E5F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1272,7 @@
         <xdr:cNvPr id="18" name="그림 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BE5D7F2-1FCC-4FFE-8D3B-685134B907F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1464,7 +1322,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1E07B2E-A309-4CA1-B638-0D8FEC0A4C80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1513,7 +1371,7 @@
         <xdr:cNvPr id="20" name="그림 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE88E567-F68E-4EE2-9892-42FA8E4807E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1420,7 @@
         <xdr:cNvPr id="21" name="그림 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F223CD8F-47B8-4F56-972E-D874510A0B9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1612,7 +1470,7 @@
         <xdr:cNvPr id="22" name="그림 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{919BF4B7-976C-4245-BC34-6693EF985C87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1662,7 +1520,7 @@
         <xdr:cNvPr id="23" name="그림 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E307ED-3A9B-45F1-B506-0BD7D2E48256}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1712,7 +1570,7 @@
         <xdr:cNvPr id="24" name="그림 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810CBC36-8A02-4A17-8956-33C3ECAF6342}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1744,377 +1602,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>97493</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>212816</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1926771</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1636667</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="72" name="그룹 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{583EA731-2A0D-4EAF-997E-C9859B8563F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="10727393" y="2670266"/>
-          <a:ext cx="1829278" cy="1423851"/>
-          <a:chOff x="8712831" y="2599509"/>
-          <a:chExt cx="1529443" cy="1423851"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="27" name="직사각형 26">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FCCA277-1A32-46C9-896E-47D155A5A79D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10014738" y="3078480"/>
-            <a:ext cx="127930" cy="912223"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="직사각형 27">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC37D19-4D96-42D5-B524-895C2DD94C11}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8858156" y="3093720"/>
-            <a:ext cx="128119" cy="912223"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="직사각형 29">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76801D81-27E8-45A9-8FB5-AE4DAE4369A3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="7791741">
-            <a:off x="9696356" y="2400300"/>
-            <a:ext cx="179613" cy="912223"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="직사각형 32">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32CF3024-BE11-4EDA-91C7-DF5D15E835C9}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="9432245" y="2599509"/>
-            <a:ext cx="112863" cy="1394460"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="직사각형 30">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A064F07F-F0F3-4CC9-A06D-894A031D1DBB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="5400000">
-            <a:off x="9405160" y="3285854"/>
-            <a:ext cx="189955" cy="1285058"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="직사각형 28">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F40814-03BC-470B-9A1C-E9938BD934D9}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2790914">
-            <a:off x="9079136" y="2461260"/>
-            <a:ext cx="179613" cy="912223"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -2133,7 +1620,7 @@
         <xdr:cNvPr id="61" name="그림 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD329D7-C70D-40A6-BE65-75D438CD57F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2183,7 +1670,7 @@
         <xdr:cNvPr id="64" name="그림 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88FE8554-E83F-4AFF-98E9-BD163B589BC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2233,7 +1720,7 @@
         <xdr:cNvPr id="66" name="그림 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84FA44EE-D7AC-45FB-97E3-7F1898FFDE71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2276,14 +1763,14 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>1926770</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1607275</xdr:rowOff>
+      <xdr:rowOff>1620455</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="99" name="그룹 98">
+        <xdr:cNvPr id="14" name="그룹 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7C0F7D6-2227-4D43-B58A-D0E9196231B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52DCA279-DCAE-424E-83BE-B0173176F06A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2291,18 +1778,1125 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12839221" y="2670265"/>
-          <a:ext cx="1698649" cy="1394460"/>
-          <a:chOff x="8712831" y="2632165"/>
-          <a:chExt cx="1529443" cy="1394460"/>
+          <a:off x="12821903" y="2651215"/>
+          <a:ext cx="1698649" cy="1407640"/>
+          <a:chOff x="12839221" y="2643595"/>
+          <a:chExt cx="1698649" cy="1407640"/>
         </a:xfrm>
       </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="7" name="그룹 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2265D174-EA36-4188-900C-A62FAEBA109D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="12839221" y="2643595"/>
+            <a:ext cx="1698649" cy="1394460"/>
+            <a:chOff x="12839221" y="2643595"/>
+            <a:chExt cx="1698649" cy="1394460"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="99" name="그룹 98">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="12839221" y="2643595"/>
+              <a:ext cx="1698649" cy="1394460"/>
+              <a:chOff x="8712831" y="2632165"/>
+              <a:chExt cx="1529443" cy="1394460"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="100" name="직사각형 99">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9963055" y="3078480"/>
+                <a:ext cx="179613" cy="912223"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="101" name="직사각형 100">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8858155" y="3093720"/>
+                <a:ext cx="179613" cy="912223"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="102" name="직사각형 101">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="2790914">
+                <a:off x="9079136" y="2461260"/>
+                <a:ext cx="179613" cy="912223"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="103" name="직사각형 102">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="7791741">
+                <a:off x="9696356" y="2400300"/>
+                <a:ext cx="179613" cy="912223"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="104" name="직사각형 103">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="5400000">
+                <a:off x="9405160" y="3285854"/>
+                <a:ext cx="189955" cy="1285058"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="105" name="직사각형 104">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="10800000">
+                <a:off x="9443917" y="2632165"/>
+                <a:ext cx="122064" cy="1394460"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="112" name="직사각형 111">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12970334" y="3152679"/>
+              <a:ext cx="1436908" cy="116299"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="6" name="그룹 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF2A0FB-1D47-4D5A-9DC6-64B9534423FB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="13296976" y="3152608"/>
+            <a:ext cx="786463" cy="898627"/>
+            <a:chOff x="13357936" y="3091648"/>
+            <a:chExt cx="786463" cy="898627"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="108" name="그룹 107">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="13357936" y="3091648"/>
+              <a:ext cx="133320" cy="898627"/>
+              <a:chOff x="11763180" y="3121039"/>
+              <a:chExt cx="133320" cy="898627"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="106" name="직사각형 105">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="18578306">
+                <a:off x="11370214" y="3524319"/>
+                <a:ext cx="888313" cy="102382"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="107" name="직사각형 106">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="2917784">
+                <a:off x="11401152" y="3514005"/>
+                <a:ext cx="888313" cy="102382"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="109" name="그룹 108">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="14011079" y="3091648"/>
+              <a:ext cx="133320" cy="898627"/>
+              <a:chOff x="11763180" y="3121039"/>
+              <a:chExt cx="133320" cy="898627"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="110" name="직사각형 109">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="18578306">
+                <a:off x="11370214" y="3524319"/>
+                <a:ext cx="888313" cy="102382"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="111" name="직사각형 110">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="2917784">
+                <a:off x="11401152" y="3514005"/>
+                <a:ext cx="888313" cy="102382"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>97493</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>212816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1926771</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1636667</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="그룹 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A51619-8A28-4A02-AEC3-752615E3F928}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10696220" y="2651216"/>
+          <a:ext cx="1829278" cy="1423851"/>
+          <a:chOff x="10719773" y="2643596"/>
+          <a:chExt cx="1829278" cy="1423851"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="72" name="그룹 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="10719773" y="2643596"/>
+            <a:ext cx="1829278" cy="1423851"/>
+            <a:chOff x="8712831" y="2599509"/>
+            <a:chExt cx="1529443" cy="1423851"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="직사각형 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10014738" y="3078480"/>
+              <a:ext cx="127930" cy="912223"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="직사각형 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8858156" y="3093720"/>
+              <a:ext cx="128119" cy="912223"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="직사각형 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="7791741">
+              <a:off x="9696356" y="2400300"/>
+              <a:ext cx="179613" cy="912223"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="직사각형 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="10800000">
+              <a:off x="9432245" y="2599509"/>
+              <a:ext cx="112863" cy="1394460"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="직사각형 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="9405160" y="3285854"/>
+              <a:ext cx="189955" cy="1285058"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="직사각형 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="2790914">
+              <a:off x="9079136" y="2461260"/>
+              <a:ext cx="179613" cy="912223"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="100" name="직사각형 99">
+          <xdr:cNvPr id="113" name="직사각형 112">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E0AD96-E0C6-47FD-BBA1-F3380FDC0FBE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2310,288 +2904,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9963055" y="3078480"/>
-            <a:ext cx="179613" cy="912223"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="101" name="직사각형 100">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46AD663-D810-4D29-8AF6-A20572E476E2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8858155" y="3093720"/>
-            <a:ext cx="179613" cy="912223"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="102" name="직사각형 101">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BEE4BA7-D04E-41C2-B4BE-55B1A9A76353}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2790914">
-            <a:off x="9079136" y="2461260"/>
-            <a:ext cx="179613" cy="912223"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="103" name="직사각형 102">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{834D4DA2-DB34-41A0-A7B1-D9452838257E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="7791741">
-            <a:off x="9696356" y="2400300"/>
-            <a:ext cx="179613" cy="912223"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="104" name="직사각형 103">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B244C83-4672-4D69-8EC8-9690ED2BDD2A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="5400000">
-            <a:off x="9405160" y="3285854"/>
-            <a:ext cx="189955" cy="1285058"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="105" name="직사각형 104">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D841F0B-6F3B-4134-91AE-0BC355464400}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="9443917" y="2632165"/>
-            <a:ext cx="122064" cy="1394460"/>
+            <a:off x="10894429" y="3207108"/>
+            <a:ext cx="1523994" cy="116300"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2638,94 +2952,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>359234</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>401640</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>721899</xdr:rowOff>
+      <xdr:rowOff>201930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1796142</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1938625</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>838198</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="직사각형 111">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E828103A-BAD0-41F3-96AC-D7601E62822B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12834263" y="3138528"/>
-          <a:ext cx="1436908" cy="116299"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>746836</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>660868</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>880156</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1559495</xdr:rowOff>
+      <xdr:rowOff>1625781</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="108" name="그룹 107">
+        <xdr:cNvPr id="2" name="그룹 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47F20F03-D01B-4163-9AA7-F4086F8FB2A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4AD0DC6-6BA7-492D-A6E3-90E49A2D26BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2733,27 +2976,27 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13357936" y="3118318"/>
-          <a:ext cx="133320" cy="898627"/>
-          <a:chOff x="11763180" y="3121039"/>
-          <a:chExt cx="133320" cy="898627"/>
+          <a:off x="8811349" y="2640330"/>
+          <a:ext cx="1536985" cy="1423851"/>
+          <a:chOff x="8840790" y="2659380"/>
+          <a:chExt cx="1536985" cy="1423851"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="106" name="직사각형 105">
+          <xdr:cNvPr id="118" name="직사각형 117">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E32CAA2B-698F-47DF-98AF-DA63F2E1A681}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm rot="18578306">
-            <a:off x="11370214" y="3524319"/>
-            <a:ext cx="888313" cy="102382"/>
+          <a:xfrm>
+            <a:off x="10224765" y="3138351"/>
+            <a:ext cx="153010" cy="912223"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2797,19 +3040,131 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="107" name="직사각형 106">
+          <xdr:cNvPr id="119" name="직사각형 118">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9747356B-B7FC-452F-87D6-D9F39AB8476A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm rot="2917784">
-            <a:off x="11401152" y="3514005"/>
-            <a:ext cx="888313" cy="102382"/>
+          <a:xfrm>
+            <a:off x="8841445" y="3153591"/>
+            <a:ext cx="153236" cy="912223"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="121" name="직사각형 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="9528078" y="2659380"/>
+            <a:ext cx="141157" cy="1256755"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="120" name="직사각형 119">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="8840790" y="3893276"/>
+            <a:ext cx="1536983" cy="189955"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2856,508 +3211,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1399979</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>660868</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1533299</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1559495</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="109" name="그룹 108">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B71A906-1E24-430B-A399-934DCB23FC59}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="14011079" y="3118318"/>
-          <a:ext cx="133320" cy="898627"/>
-          <a:chOff x="11763180" y="3121039"/>
-          <a:chExt cx="133320" cy="898627"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="110" name="직사각형 109">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E8EBE1D-0832-4F6A-B069-36403602EE2B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="18578306">
-            <a:off x="11370214" y="3524319"/>
-            <a:ext cx="888313" cy="102382"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="111" name="직사각형 110">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFC66FE-63D3-488E-8754-B6659418CE4C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="2917784">
-            <a:off x="11401152" y="3514005"/>
-            <a:ext cx="888313" cy="102382"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>272149</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>776328</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1796143</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>892628</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="직사각형 112">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EE44160-8094-4B32-95F1-7583EF0C8A41}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10907492" y="3192957"/>
-          <a:ext cx="1523994" cy="116300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1785615</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>680901</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1938625</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1593124</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="직사각형 117">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AFE1A95-26FF-4636-BCFB-982535095D1B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10232929" y="3097530"/>
-          <a:ext cx="153010" cy="912223"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>402295</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>696141</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>555531</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1608364</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="직사각형 118">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E720EFC9-29EC-4EC5-B2C0-4772534141C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8849609" y="3112770"/>
-          <a:ext cx="153236" cy="912223"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1088928</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>201930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1230085</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1458685</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="직사각형 120">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F7CB167-2EDE-43C0-AC5E-9B052109BB9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="9536242" y="2618559"/>
-          <a:ext cx="141157" cy="1256755"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>401640</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1435826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1938623</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1625781</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="직사각형 119">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA0C98A-334D-429D-918F-37D6B4C1E50A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="8848954" y="3852455"/>
-          <a:ext cx="1536983" cy="189955"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>540875</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -3374,7 +3227,7 @@
         <xdr:cNvPr id="133" name="그룹 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAB936D7-83E8-4994-8DF7-EC751A1529F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3382,7 +3235,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8980025" y="4851126"/>
+          <a:off x="8950584" y="4842467"/>
           <a:ext cx="918649" cy="880680"/>
           <a:chOff x="9086844" y="5072464"/>
           <a:chExt cx="804402" cy="771155"/>
@@ -3393,7 +3246,7 @@
           <xdr:cNvPr id="134" name="그룹 133">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9B2C5C3-152E-4885-811E-24C518BD6B41}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3412,7 +3265,7 @@
             <xdr:cNvPr id="138" name="직사각형 137">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55190B0A-EFBE-4A37-A9A9-02883392F238}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3468,7 +3321,7 @@
             <xdr:cNvPr id="139" name="직사각형 138">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B259A5A-BD8C-43BB-BFE9-C73FA4732A26}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3524,7 +3377,7 @@
             <xdr:cNvPr id="140" name="직사각형 139">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA397BA-56D0-42FE-B86D-C608487B4649}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3580,7 +3433,7 @@
             <xdr:cNvPr id="136" name="직사각형 135">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A9A7330-FE3F-4D98-8DA3-7BCEEFFF36FC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3636,7 +3489,7 @@
             <xdr:cNvPr id="137" name="직사각형 136">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A42E617-EF95-4726-9F40-BCF229E89B25}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3693,7 +3546,7 @@
           <xdr:cNvPr id="135" name="직사각형 134">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1519C3E2-2F7F-48A8-8D53-2266D9B761E7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3765,7 +3618,7 @@
         <xdr:cNvPr id="141" name="그룹 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C016003-9968-403D-BE8F-2AE84974F18F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3773,7 +3626,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11177402" y="4433679"/>
+          <a:off x="11146229" y="4425020"/>
           <a:ext cx="918649" cy="1477032"/>
           <a:chOff x="9086844" y="4550277"/>
           <a:chExt cx="804402" cy="1293342"/>
@@ -3784,7 +3637,7 @@
           <xdr:cNvPr id="142" name="그룹 141">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBA54508-4A1B-49F1-9A77-C504468150B5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3803,7 +3656,7 @@
             <xdr:cNvPr id="144" name="직사각형 143">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6D6112-3276-4EC4-9B87-E5434944767D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3859,7 +3712,7 @@
             <xdr:cNvPr id="145" name="직사각형 144">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF58269-2954-4564-863E-621432001D56}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3915,7 +3768,7 @@
             <xdr:cNvPr id="146" name="직사각형 145">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{022CF02A-A0C9-47B6-A446-CD5CC3DA00A3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3971,7 +3824,7 @@
             <xdr:cNvPr id="147" name="직사각형 146">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E97BE0F-320A-4B18-BB61-19AD615F005F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4027,7 +3880,7 @@
             <xdr:cNvPr id="148" name="직사각형 147">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{382F53CF-BAAD-44EE-ABA0-D86743CCAE89}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4084,7 +3937,7 @@
           <xdr:cNvPr id="143" name="직사각형 142">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC0DE52-904E-4797-B98B-5796279B3D70}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4156,7 +4009,7 @@
         <xdr:cNvPr id="149" name="직사각형 148">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D81E74A-C6A7-458F-A1B6-97AF83B14045}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4213,8 +4066,8 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>666772</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>165650</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1782415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -4224,10 +4077,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="150" name="그룹 149">
+        <xdr:cNvPr id="19" name="그룹 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D664E63D-55D4-4503-8182-349874C6406C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5661F428-CC6F-4BAC-A69E-6255E9162155}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4235,18 +4088,130 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13277872" y="4413800"/>
-          <a:ext cx="918649" cy="1477032"/>
-          <a:chOff x="9086844" y="4550277"/>
-          <a:chExt cx="804402" cy="1293342"/>
+          <a:off x="13260554" y="4220815"/>
+          <a:ext cx="918649" cy="1661358"/>
+          <a:chOff x="13277872" y="4213195"/>
+          <a:chExt cx="918649" cy="1658587"/>
         </a:xfrm>
       </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="158" name="직사각형 157">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="2808046">
+            <a:off x="13270726" y="4604654"/>
+            <a:ext cx="884561" cy="101644"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="159" name="직사각형 158">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="18656447">
+            <a:off x="13308792" y="4635497"/>
+            <a:ext cx="881910" cy="101644"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="151" name="그룹 150">
+          <xdr:cNvPr id="150" name="그룹 149">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F33343-AA45-46B2-A67E-8BB34918862D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4254,251 +4219,327 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="9086844" y="4550277"/>
-            <a:ext cx="804402" cy="1293342"/>
-            <a:chOff x="9099149" y="4640202"/>
+            <a:off x="13277872" y="4394750"/>
+            <a:ext cx="918649" cy="1477032"/>
+            <a:chOff x="9086844" y="4550277"/>
             <a:chExt cx="804402" cy="1293342"/>
           </a:xfrm>
         </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="151" name="그룹 150">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="9086844" y="4550277"/>
+              <a:ext cx="804402" cy="1293342"/>
+              <a:chOff x="9099149" y="4640202"/>
+              <a:chExt cx="804402" cy="1293342"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="153" name="직사각형 152">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="9428952" y="5552993"/>
+                <a:ext cx="139178" cy="604895"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="154" name="직사각형 153">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="2808046">
+                <a:off x="9440763" y="5120675"/>
+                <a:ext cx="89003" cy="772232"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="155" name="직사각형 154">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="18656447">
+                <a:off x="9472933" y="5146522"/>
+                <a:ext cx="89003" cy="772232"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="156" name="직사각형 155">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009C000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="10800000">
+                <a:off x="9146561" y="4640204"/>
+                <a:ext cx="111400" cy="1293340"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="157" name="직사각형 156">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="10800000">
+                <a:off x="9738229" y="4640202"/>
+                <a:ext cx="105738" cy="1293341"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="153" name="직사각형 152">
+            <xdr:cNvPr id="152" name="직사각형 151">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D5B0AC-0C85-4418-A012-F71DA1172C19}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
-            <a:xfrm rot="16200000">
-              <a:off x="9428952" y="5552993"/>
-              <a:ext cx="139178" cy="604895"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="154" name="직사각형 153">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9E19968-FC2A-4C21-9E38-B4762906BDCF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="2808046">
-              <a:off x="9440763" y="5120675"/>
-              <a:ext cx="89003" cy="772232"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="155" name="직사각형 154">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DBB982B-5D33-4DAA-AF09-F74699CA52E0}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="18656447">
-              <a:off x="9472933" y="5146522"/>
-              <a:ext cx="89003" cy="772232"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="156" name="직사각형 155">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D721F35-B8E9-49E0-BFC9-BFB3FA4D52BE}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="10800000">
-              <a:off x="9146561" y="4640204"/>
-              <a:ext cx="111400" cy="1293340"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="157" name="직사각형 156">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DD440C-3705-4A81-A446-15B5C45B6DDB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="10800000">
-              <a:off x="9738229" y="4640202"/>
-              <a:ext cx="105738" cy="1293341"/>
+            <a:xfrm>
+              <a:off x="9138104" y="5072464"/>
+              <a:ext cx="695822" cy="100790"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4543,10 +4584,10 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="152" name="직사각형 151">
+          <xdr:cNvPr id="160" name="직사각형 159">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6ED3E8-1A39-491F-B119-EC9514F0CA61}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4554,8 +4595,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9138104" y="5072464"/>
-            <a:ext cx="695822" cy="100790"/>
+            <a:off x="13335242" y="4272300"/>
+            <a:ext cx="799858" cy="142331"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4600,77 +4641,6 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>724142</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>185531</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="160" name="직사각형 159">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10F0C9D3-0ADD-43BE-9CF4-CF448F63B5E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13333585" y="4264017"/>
-          <a:ext cx="799858" cy="142331"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -4689,7 +4659,7 @@
         <xdr:cNvPr id="195" name="그림 194">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72656666-54DF-497B-828E-9B96DD764D5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4739,7 +4709,7 @@
         <xdr:cNvPr id="196" name="직사각형 195">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9493695-3B42-4599-B52C-8865EA7BAFD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4843,7 +4813,7 @@
         <xdr:cNvPr id="199" name="그룹 198">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFF5201-699D-405B-8DA8-A2414C565D63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4851,7 +4821,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17478221" y="6125984"/>
+          <a:off x="17473026" y="6113861"/>
           <a:ext cx="1064355" cy="1419140"/>
           <a:chOff x="17611573" y="7960590"/>
           <a:chExt cx="905436" cy="1207248"/>
@@ -4862,7 +4832,7 @@
           <xdr:cNvPr id="59" name="그림 58">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81711EB3-E5EA-4B59-8CB4-20D12EC976D1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4897,7 +4867,7 @@
           <xdr:cNvPr id="197" name="그림 196">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4025CD5F-BC61-494B-8C2C-0C47E85E29E3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C5000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4932,7 +4902,7 @@
           <xdr:cNvPr id="198" name="그림 197">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FBF4AAB-8C8C-4FD0-85CB-6E4BFB197F4C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C6000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4988,7 +4958,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1824DF1B-C1BF-49B2-8466-4D508DF30489}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5037,7 +5007,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{793F6952-4872-4814-B35F-D4ECFC6AC243}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5086,7 +5056,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{507DF745-D01F-4115-AE87-B52CF0F573A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5135,7 +5105,7 @@
         <xdr:cNvPr id="8" name="그룹 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E741EA2F-E86A-49A9-88A2-BA38F8449183}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5154,7 +5124,7 @@
           <xdr:cNvPr id="9" name="직사각형 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2ACA627-C30D-4DE0-8095-C8AD21B9A315}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5304,7 +5274,7 @@
           <xdr:cNvPr id="10" name="직사각형 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1204683D-B0B9-471B-8E17-9DC9C8598A4F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5454,7 +5424,7 @@
           <xdr:cNvPr id="11" name="직사각형 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51087DD5-92B9-4B94-931C-88FA7D36880C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5604,7 +5574,7 @@
           <xdr:cNvPr id="12" name="직사각형 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7ED063-1971-4E22-8A0A-1B8B48574A43}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5754,7 +5724,7 @@
           <xdr:cNvPr id="13" name="직사각형 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E1151A2-9731-4846-9520-0DECA3B85D8A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5904,7 +5874,7 @@
           <xdr:cNvPr id="14" name="직사각형 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4F8A087-0866-4507-A369-862609A61B47}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6070,7 +6040,7 @@
         <xdr:cNvPr id="15" name="그룹 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B61300-3AE2-4F63-8DE0-1BE17D13E988}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6089,7 +6059,7 @@
           <xdr:cNvPr id="16" name="직사각형 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F25B0F61-C507-4794-882C-24414762885F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6239,7 +6209,7 @@
           <xdr:cNvPr id="17" name="직사각형 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E803A458-75A7-4294-AB93-ED7646F850AF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6389,7 +6359,7 @@
           <xdr:cNvPr id="18" name="직사각형 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6017BEB-2BCF-4EAC-8F3F-6A6A2199171C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6539,7 +6509,7 @@
           <xdr:cNvPr id="19" name="직사각형 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB149D97-67C2-4853-B707-3DE48B595871}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6689,7 +6659,7 @@
           <xdr:cNvPr id="20" name="직사각형 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F193A3-E30B-4277-B99C-DB9DCED842AD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6839,7 +6809,7 @@
           <xdr:cNvPr id="21" name="직사각형 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B84256A8-CDD7-4A78-8BA4-6133E1E2C8F7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6989,7 +6959,7 @@
           <xdr:cNvPr id="22" name="직사각형 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B4D4855-589E-47BF-AE65-11FBEC1E576B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7139,7 +7109,7 @@
           <xdr:cNvPr id="23" name="직사각형 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CCED86-349A-4E20-B6B6-F128EE901882}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7305,7 +7275,7 @@
         <xdr:cNvPr id="24" name="그룹 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33EB728C-A3A8-433B-B243-4AA5CB56F307}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7324,7 +7294,7 @@
           <xdr:cNvPr id="25" name="직사각형 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EDF2D62-2F15-4B7B-BDDA-AC73192E7CF9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7474,7 +7444,7 @@
           <xdr:cNvPr id="26" name="직사각형 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33FF1E1B-DDA2-491B-92F6-D8050335A438}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7624,7 +7594,7 @@
           <xdr:cNvPr id="27" name="직사각형 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B584708C-9B9C-4B88-A82C-1F642BDC4FC8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7774,7 +7744,7 @@
           <xdr:cNvPr id="28" name="직사각형 27">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEBC3787-F36C-4C1E-B10B-60779EA4DB8E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7924,7 +7894,7 @@
           <xdr:cNvPr id="29" name="직사각형 28">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79954AB3-FC47-4EA9-A7D5-4EB3B7398FB0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8074,7 +8044,7 @@
           <xdr:cNvPr id="30" name="직사각형 29">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B8276F-AB25-4AC2-977E-377559CE96A4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8224,7 +8194,7 @@
           <xdr:cNvPr id="31" name="직사각형 30">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA2BA14-C210-49F1-9327-570062D1CA30}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8374,7 +8344,7 @@
           <xdr:cNvPr id="32" name="직사각형 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54279D5D-539B-49E4-8010-18C1201AC988}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8524,7 +8494,7 @@
           <xdr:cNvPr id="33" name="직사각형 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20304E09-94AD-4EA5-8D97-28BC0980E706}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8674,7 +8644,7 @@
           <xdr:cNvPr id="34" name="직사각형 33">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8FE23F5-C745-492B-A22B-48E512F8DDF5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8824,7 +8794,7 @@
           <xdr:cNvPr id="35" name="직사각형 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59AAE1D9-72DF-4E49-8D75-AF5FD3BDA23B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8990,7 +8960,7 @@
         <xdr:cNvPr id="36" name="그룹 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59CF5E9C-8003-4800-BA76-CEA5CC3E0905}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9009,7 +8979,7 @@
           <xdr:cNvPr id="37" name="직사각형 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99125BDC-6F57-47BB-98F6-0D14A62F6079}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9159,7 +9129,7 @@
           <xdr:cNvPr id="38" name="직사각형 37">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD9C3976-BAF0-48EC-8F99-A4BF2A70FD25}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9309,7 +9279,7 @@
           <xdr:cNvPr id="39" name="직사각형 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22CF5732-CDEE-41AC-BFFB-EB020C3ADE5E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9458,7 +9428,7 @@
           <xdr:cNvPr id="40" name="직사각형 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E0252-1446-476A-A32C-A6E60C5B1369}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9608,7 +9578,7 @@
           <xdr:cNvPr id="41" name="직사각형 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DB5B80-8AF0-4DA0-A4AF-52E535172B55}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9758,7 +9728,7 @@
           <xdr:cNvPr id="42" name="직사각형 41">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2933C6B-59D5-4484-8E56-DCA3249CD0B6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9923,7 +9893,7 @@
         <xdr:cNvPr id="43" name="그룹 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E5EFAE2-D60D-43CC-A066-1760F7F10D5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9942,7 +9912,7 @@
           <xdr:cNvPr id="44" name="직사각형 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B70E38-B825-4A4D-9668-0E2C6FD804D1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10092,7 +10062,7 @@
           <xdr:cNvPr id="45" name="그룹 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59CF5E9C-8003-4800-BA76-CEA5CC3E0905}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -10111,7 +10081,7 @@
             <xdr:cNvPr id="47" name="직사각형 46">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99125BDC-6F57-47BB-98F6-0D14A62F6079}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10261,7 +10231,7 @@
             <xdr:cNvPr id="48" name="직사각형 47">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD9C3976-BAF0-48EC-8F99-A4BF2A70FD25}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10411,7 +10381,7 @@
             <xdr:cNvPr id="49" name="직사각형 48">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22CF5732-CDEE-41AC-BFFB-EB020C3ADE5E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10560,7 +10530,7 @@
             <xdr:cNvPr id="50" name="직사각형 49">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E0252-1446-476A-A32C-A6E60C5B1369}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10710,7 +10680,7 @@
             <xdr:cNvPr id="51" name="직사각형 50">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DB5B80-8AF0-4DA0-A4AF-52E535172B55}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10860,7 +10830,7 @@
             <xdr:cNvPr id="52" name="직사각형 51">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2933C6B-59D5-4484-8E56-DCA3249CD0B6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11010,7 +10980,7 @@
           <xdr:cNvPr id="46" name="직사각형 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F761FFBA-D740-49E0-B74F-2048EDC43518}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11176,7 +11146,7 @@
         <xdr:cNvPr id="53" name="그룹 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B270266-F660-4581-8AF5-A6EAD656DDDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11195,7 +11165,7 @@
           <xdr:cNvPr id="54" name="그룹 53">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E5EFAE2-D60D-43CC-A066-1760F7F10D5A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11214,7 +11184,7 @@
             <xdr:cNvPr id="58" name="직사각형 57">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B70E38-B825-4A4D-9668-0E2C6FD804D1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11364,7 +11334,7 @@
             <xdr:cNvPr id="59" name="그룹 58">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59CF5E9C-8003-4800-BA76-CEA5CC3E0905}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11383,7 +11353,7 @@
               <xdr:cNvPr id="61" name="직사각형 60">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99125BDC-6F57-47BB-98F6-0D14A62F6079}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11533,7 +11503,7 @@
               <xdr:cNvPr id="62" name="직사각형 61">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD9C3976-BAF0-48EC-8F99-A4BF2A70FD25}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003E000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11683,7 +11653,7 @@
               <xdr:cNvPr id="63" name="직사각형 62">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22CF5732-CDEE-41AC-BFFB-EB020C3ADE5E}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11832,7 +11802,7 @@
               <xdr:cNvPr id="64" name="직사각형 63">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E0252-1446-476A-A32C-A6E60C5B1369}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -11982,7 +11952,7 @@
               <xdr:cNvPr id="65" name="직사각형 64">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DB5B80-8AF0-4DA0-A4AF-52E535172B55}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12132,7 +12102,7 @@
               <xdr:cNvPr id="66" name="직사각형 65">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2933C6B-59D5-4484-8E56-DCA3249CD0B6}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -12282,7 +12252,7 @@
             <xdr:cNvPr id="60" name="직사각형 59">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F761FFBA-D740-49E0-B74F-2048EDC43518}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12433,7 +12403,7 @@
           <xdr:cNvPr id="55" name="직사각형 54">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C728DD2-FDBB-49AA-BA0D-6D1802C989D5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12583,7 +12553,7 @@
           <xdr:cNvPr id="56" name="직사각형 55">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69801DA4-53C2-44DA-8089-B61E82ADF83F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12733,7 +12703,7 @@
           <xdr:cNvPr id="57" name="직사각형 56">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF07138-CB77-460E-8BC4-8C998C68BD82}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -13183,8 +13153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55FA3FB-C7D9-441E-9E3A-31C118F75619}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13270,16 +13240,16 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="26"/>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="32" t="s">
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54" t="s">
         <v>27</v>
       </c>
       <c r="L4" s="27"/>
-      <c r="M4" s="54"/>
+      <c r="M4" s="50"/>
       <c r="N4" s="30" t="s">
         <v>32</v>
       </c>
@@ -13307,9 +13277,9 @@
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
-      <c r="K5" s="33"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="26"/>
-      <c r="M5" s="55"/>
+      <c r="M5" s="51"/>
       <c r="N5" s="30" t="s">
         <v>30</v>
       </c>
@@ -13337,21 +13307,21 @@
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
-      <c r="K6" s="33"/>
+      <c r="K6" s="55"/>
       <c r="L6" s="26"/>
-      <c r="M6" s="55"/>
+      <c r="M6" s="51"/>
       <c r="N6" s="30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="135" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7" s="48">
         <v>200</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="47" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="29">
@@ -13367,9 +13337,9 @@
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
-      <c r="K7" s="34"/>
+      <c r="K7" s="56"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="56"/>
+      <c r="M7" s="52"/>
       <c r="N7" s="30" t="s">
         <v>29</v>
       </c>
@@ -13377,27 +13347,27 @@
     <row r="8" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="35"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:14" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="41"/>
+      <c r="A10" s="38"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="46"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="19"/>
@@ -13432,232 +13402,232 @@
       <c r="B14" s="14"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="36"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="38"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="41"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="41"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="41"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="38"/>
     </row>
     <row r="18" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="41"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="38"/>
     </row>
     <row r="19" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="43"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13675,8 +13645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A63BF45-0F95-4B28-A903-D5598CDDE97C}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13734,71 +13704,71 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="53">
+      <c r="B2" s="49">
         <v>200</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="49">
         <v>20</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="49">
         <v>150</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="53">
+      <c r="M2" s="49">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="49">
         <v>200</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="49">
         <v>30</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="49">
         <v>150</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="53">
+      <c r="M3" s="49">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="49">
         <v>150</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="49">
         <v>50</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="49">
         <v>250</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="53">
+      <c r="M4" s="49">
         <v>2</v>
       </c>
     </row>

--- a/유닛 및 건물/양과 늑대_건물.xlsx
+++ b/유닛 및 건물/양과 늑대_건물.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9525CC8F-CD7E-44DE-9355-ED6F1A38D06D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAABC67-6D94-47A9-A7A3-F787A0384D8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1200" yWindow="240" windowWidth="19548" windowHeight="10080" xr2:uid="{43D9080A-AC43-47FA-8388-F8E385494613}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{43D9080A-AC43-47FA-8388-F8E385494613}"/>
   </bookViews>
   <sheets>
     <sheet name="건물" sheetId="1" r:id="rId1"/>
@@ -13153,8 +13153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55FA3FB-C7D9-441E-9E3A-31C118F75619}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13265,7 +13265,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="25">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>15</v>
@@ -13295,7 +13295,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="25">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>15</v>
@@ -13325,7 +13325,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="29">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>15</v>
@@ -13645,8 +13645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A63BF45-0F95-4B28-A903-D5598CDDE97C}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -13737,7 +13737,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="49">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>8</v>
